--- a/src/test/TestStep_Spotify.xlsx
+++ b/src/test/TestStep_Spotify.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="134">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -250,11 +250,23 @@
     <t xml:space="preserve">Step_9</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.spotify.com/vn-vi/signup#step=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#password_requirement_one_letter, #password_requirement_one_number_or_special_character, #password_requirement_ten_characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varResult#</t>
+  </si>
+  <si>
     <t xml:space="preserve">Step 2 of 3
 (Tell us about yourself)</t>
   </si>
   <si>
-    <t xml:space="preserve">Step_10</t>
+    <t xml:space="preserve">Step_11</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập Tên</t>
@@ -266,7 +278,7 @@
     <t xml:space="preserve">Chi</t>
   </si>
   <si>
-    <t xml:space="preserve">Step_11</t>
+    <t xml:space="preserve">Step_12</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập ngày sinh</t>
@@ -278,7 +290,7 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">Step_12</t>
+    <t xml:space="preserve">Step_13</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn tháng sinh</t>
@@ -287,7 +299,7 @@
     <t xml:space="preserve">#month</t>
   </si>
   <si>
-    <t xml:space="preserve">Step_13</t>
+    <t xml:space="preserve">Step_14</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập năm sinh</t>
@@ -299,7 +311,7 @@
     <t xml:space="preserve">2002</t>
   </si>
   <si>
-    <t xml:space="preserve">Step_14</t>
+    <t xml:space="preserve">Step_15</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn giới tính</t>
@@ -308,17 +320,17 @@
     <t xml:space="preserve">//*[@id="__next"]/main/main/section/div/form/div[1]/div[2]/div/section/div[3]/fieldset/div/div/div[2]/label/span[1]</t>
   </si>
   <si>
-    <t xml:space="preserve">Step_15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Step_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step_17</t>
   </si>
   <si>
     <t xml:space="preserve">Step 3 of 3
 (Term&amp;Conditions)</t>
   </si>
   <si>
-    <t xml:space="preserve">Step_17</t>
+    <t xml:space="preserve">Step_18</t>
   </si>
   <si>
     <t xml:space="preserve">Click xác nhận 1</t>
@@ -327,7 +339,7 @@
     <t xml:space="preserve">//*[@id="__next"]/main/main/section/div/form/div[1]/div[2]/div/section/div[4]/div[1]/div</t>
   </si>
   <si>
-    <t xml:space="preserve">Step_18</t>
+    <t xml:space="preserve">Step_19</t>
   </si>
   <si>
     <t xml:space="preserve">Click xác nhận 2</t>
@@ -336,13 +348,13 @@
     <t xml:space="preserve">//*[@id="__next"]/main/main/section/div/form/div[1]/div[2]/div/section/div[4]/div[2]</t>
   </si>
   <si>
-    <t xml:space="preserve">Step_19</t>
+    <t xml:space="preserve">Step_20</t>
   </si>
   <si>
     <t xml:space="preserve">Nhấn Sign Up</t>
   </si>
   <si>
-    <t xml:space="preserve">Step_20</t>
+    <t xml:space="preserve">Step_21</t>
   </si>
   <si>
     <t xml:space="preserve">Đóng trình duyệt</t>
@@ -384,37 +396,37 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">"Your password must contain at least 1 letter" and "Your password must contain at least 1 number or special character (example: # ? ! &amp;)" and "Your password must contain at least 10 characters"</t>
+    <t xml:space="preserve">1 letter,1 number or special character (example: # ? ! &amp;),10 characters</t>
   </si>
   <si>
     <t xml:space="preserve">1234567890@</t>
   </si>
   <si>
-    <t xml:space="preserve">"Your password must contain at least 1 letter"</t>
+    <t xml:space="preserve">1 letter</t>
   </si>
   <si>
     <t xml:space="preserve">testerpassword</t>
   </si>
   <si>
-    <t xml:space="preserve">"Your password must contain at least 1 number or special character (example: # ? ! &amp;)"</t>
+    <t xml:space="preserve">1 number or special character (example: # ? ! &amp;)</t>
   </si>
   <si>
     <t xml:space="preserve">tester1@</t>
   </si>
   <si>
-    <t xml:space="preserve">"Your password must contain at least 10 characters"</t>
+    <t xml:space="preserve">10 characters</t>
   </si>
   <si>
     <t xml:space="preserve">123456789</t>
   </si>
   <si>
-    <t xml:space="preserve">"Your password must contain at least 1 letter" and "Your password must contain at least 1 special character (example: # ? ! &amp;)" </t>
+    <t xml:space="preserve">1 letter,1 special character (example: # ? ! &amp;)</t>
   </si>
   <si>
     <t xml:space="preserve">abcdeghi</t>
   </si>
   <si>
-    <t xml:space="preserve">"Your password must contain at least 1 number or special character (example: # ? ! &amp;)" and "Your password must contain at least 10 characters"</t>
+    <t xml:space="preserve">1 number or special character (example: # ? ! &amp;),10 characters</t>
   </si>
   <si>
     <t xml:space="preserve">tester12345</t>
@@ -495,11 +507,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -510,7 +521,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -610,7 +621,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -683,47 +694,39 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1173,10 +1176,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1385,43 +1388,41 @@
       <c r="B10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="G10" s="17" t="s">
         <v>74</v>
       </c>
+    </row>
+    <row r="11" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
       <c r="B11" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="5" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
       <c r="B12" s="11" t="s">
         <v>79</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>81</v>
@@ -1441,7 +1442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
       <c r="B13" s="11" t="s">
         <v>83</v>
@@ -1450,7 +1451,7 @@
         <v>84</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>36</v>
@@ -1459,31 +1460,31 @@
         <v>85</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
       <c r="B14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
       <c r="B15" s="11" t="s">
         <v>90</v>
@@ -1492,80 +1493,82 @@
         <v>91</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G15" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
       <c r="B16" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
       <c r="B17" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>25</v>
+        <v>56</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>95</v>
-      </c>
+      <c r="A18" s="12"/>
       <c r="B18" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="B19" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>10</v>
@@ -1574,17 +1577,17 @@
         <v>33</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12"/>
       <c r="B20" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>10</v>
@@ -1593,32 +1596,51 @@
         <v>33</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12"/>
+      <c r="B22" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E1:E1021" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E1:E1022" type="list">
       <formula1>LocatorTypes!$B:$B</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1:D1021" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1:D1022" type="list">
       <formula1>Keywords!$B:$B</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1626,6 +1648,7 @@
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" display="https://www.spotify.com/vn-vi/signup"/>
     <hyperlink ref="G6" r:id="rId2" location="step=1" display="https://www.spotify.com/vn-vi/signup#step=1"/>
+    <hyperlink ref="G10" r:id="rId3" location="step=2" display="https://www.spotify.com/vn-vi/signup#step=2"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1642,80 +1665,78 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="38.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="55.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="18" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.09"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" s="25" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B8" s="23"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="chi@gmailcom"/>
@@ -1742,76 +1763,75 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="23.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="83.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="26" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="83.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>107</v>
+      <c r="A1" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>120</v>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>122</v>
+      <c r="A4" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>128</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="29"/>
+      <c r="A8" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
